--- a/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLlinear_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.515</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.875</v>
+        <v>17.721</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.348</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.389</v>
+        <v>15.16</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.768</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.252</v>
+        <v>10.451</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>24.61095023659509</v>
+        <v>13.62851831653667</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.704540046194552</v>
+        <v>7.278127047132935</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>17.64389497173937</v>
+        <v>11.46915340564784</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-12.87067294786235</v>
+        <v>-2.108909386958599</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.60971090569299</v>
+        <v>24.43564999291433</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.2613593113287</v>
+        <v>24.2983764747019</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.01544941669064</v>
+        <v>26.69068669139264</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>41.65332855889645</v>
+        <v>34.65854670977396</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.785542221732911</v>
+        <v>14.3220555266713</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.99802399532867</v>
+        <v>43.45698778278776</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35.24946524699149</v>
+        <v>24.72383036418902</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.60307135170807</v>
+        <v>24.33260738482307</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40.66631164608162</v>
+        <v>32.07016572864828</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6705714329638752</v>
+        <v>9.206610118366507</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41.93348841499198</v>
+        <v>43.85851698709146</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>35.64540895682406</v>
+        <v>26.53614509161302</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>11.35893374122152</v>
+        <v>17.62232371760162</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.2123729389223</v>
+        <v>24.74537621995458</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-3.488014028088728</v>
+        <v>2.039838662207858</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>40.26718317349396</v>
+        <v>44.62353270097701</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3.744111411787983</v>
+        <v>17.61627518121365</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.5865302153818</v>
+        <v>21.87565436482144</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-7.739771879231071</v>
+        <v>6.044959013936657</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.17093446159531</v>
+        <v>28.50160993353771</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>7.986106935740082</v>
+        <v>22.50028301771536</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.12330440169832</v>
+        <v>28.30262990075217</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-6.301296965619713</v>
+        <v>5.896776463908134</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.27460883800924</v>
+        <v>43.76375399204584</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>52.95045186723658</v>
+        <v>53.05418588840877</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15.80173767787036</v>
+        <v>30.18352391037469</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>52.72907649334573</v>
+        <v>53.47193918064763</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>37.16688910830612</v>
+        <v>58.04692598539994</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>68.36387251471301</v>
+        <v>69.9160481782905</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>24.27928558558202</v>
+        <v>39.43781573530961</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>24.92953293362072</v>
+        <v>41.00626098368346</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53.37992227205827</v>
+        <v>50.30037493407249</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14.00128166916522</v>
+        <v>25.74310765337802</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.72995456240089</v>
+        <v>55.09691375138723</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>39.11499613747038</v>
+        <v>57.56204601264397</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>72.46655422951417</v>
+        <v>69.96859127311603</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>25.9441780617658</v>
+        <v>36.92743832378304</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>18.18769528912725</v>
+        <v>32.52166510291298</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>40.65768349993816</v>
+        <v>40.85726374163167</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>6.766003726970723</v>
+        <v>17.27561385746417</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>52.52833409236783</v>
+        <v>57.97285380281553</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>30.39015837825532</v>
+        <v>50.22759034312345</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>56.74653598345439</v>
+        <v>61.5550901501173</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>16.18487788546872</v>
+        <v>28.56112396152501</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>34.61323058914279</v>
+        <v>45.25653960211167</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>9.812627321742951</v>
+        <v>28.3438955115236</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.24985273612313</v>
+        <v>36.88012976463899</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-7.425848196582969</v>
+        <v>8.537367798339895</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>31.21074649679458</v>
+        <v>35.97140090035607</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.17226309180188</v>
+        <v>53.0590159837568</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>23.18727659443373</v>
+        <v>43.71455744833265</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>52.13606955442911</v>
+        <v>56.11073186250572</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5.60357535875012</v>
+        <v>19.83088173569858</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>45.81705786567304</v>
+        <v>51.08002620452059</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>41.3286886184796</v>
+        <v>51.61882353323858</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>18.73935817895155</v>
+        <v>39.81301081094318</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.94891764656876</v>
+        <v>51.92511572375977</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.3238915395827036</v>
+        <v>13.37331024544882</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>44.05160750326193</v>
+        <v>50.51691102618587</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>42.95223024312533</v>
+        <v>54.69397490609638</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.50994673705162</v>
+        <v>35.69844508695381</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>41.77182748897539</v>
+        <v>47.13247175084021</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-1.181770897630997</v>
+        <v>9.974236126336935</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>43.88328532089078</v>
+        <v>51.79369371534531</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>9.390093605204768</v>
+        <v>25.57262237487068</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>32.63581585337471</v>
+        <v>34.02419340485174</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-4.542713196268011</v>
+        <v>8.642671614886376</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.77964098581339</v>
+        <v>38.83309020991714</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>13.79076471083124</v>
+        <v>31.08712211497688</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>40.86643231169862</v>
+        <v>40.88213966189242</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-2.601755495900306</v>
+        <v>9.150335263529948</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.26119509392333</v>
+        <v>46.20497810367238</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>60.08167498696753</v>
+        <v>59.78189483437085</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>14.59058137081497</v>
+        <v>25.6918316170232</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>53.62484292634834</v>
+        <v>55.28589171512453</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.58042580743437</v>
+        <v>57.27595214605615</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>74.39886800760743</v>
+        <v>73.20819789064343</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>21.9665433983607</v>
+        <v>32.23912079101496</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24.99433140302141</v>
+        <v>42.77779906468567</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>58.41744329806387</v>
+        <v>56.36872305205259</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>10.72621636376817</v>
+        <v>20.69953843617149</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>54.71086910048355</v>
+        <v>55.03767803459832</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>37.43077276105505</v>
+        <v>55.47450606102756</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>76.23340788350893</v>
+        <v>71.97800148723827</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.42672815067236</v>
+        <v>28.66917635809524</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>20.58484790032091</v>
+        <v>36.49473399507806</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>48.34859823942817</v>
+        <v>49.05246314473957</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>6.529049115142072</v>
+        <v>16.21819713510732</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>54.99436726701816</v>
+        <v>61.00527310447269</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.85982051929435</v>
+        <v>52.61254988173122</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>65.05672118901307</v>
+        <v>68.01971191302118</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>16.41261230844511</v>
+        <v>26.27881055876839</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>34.61323058914279</v>
+        <v>32.02475543033221</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>9.812627321742951</v>
+        <v>19.92140272372898</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>31.24985273612313</v>
+        <v>26.88094771495632</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-7.425848196582969</v>
+        <v>3.806315102594313</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.21074649679458</v>
+        <v>33.45636557844157</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.17226309180188</v>
+        <v>40.61321293248601</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>23.18727659443373</v>
+        <v>36.12167510911904</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>52.13606955442911</v>
+        <v>46.97910305599806</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>5.60357535875012</v>
+        <v>15.92358704513499</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>45.81705786567304</v>
+        <v>48.41553835121847</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>41.3286886184796</v>
+        <v>39.80520264358946</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>18.73935817895155</v>
+        <v>32.73894114965218</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.94891764656876</v>
+        <v>43.34904802578308</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.3238915395827036</v>
+        <v>9.89221391676096</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>44.05160750326193</v>
+        <v>48.35117922314147</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>42.95223024312533</v>
+        <v>42.45565903829223</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.50994673705162</v>
+        <v>28.20456954426554</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>41.77182748897539</v>
+        <v>38.12392680861044</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>-1.181770897630997</v>
+        <v>6.089867613476729</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.88328532089078</v>
+        <v>49.98522266336713</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>9.390093605204768</v>
+        <v>25.36399515581716</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>32.63581585337471</v>
+        <v>32.75095521141188</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-4.542713196268011</v>
+        <v>10.58991148102685</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.77964098581339</v>
+        <v>37.17844984693965</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>13.79076471083124</v>
+        <v>31.25478865603964</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>40.86643231169862</v>
+        <v>40.0797079631072</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>-2.601755495900306</v>
+        <v>11.36282643786847</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.26119509392333</v>
+        <v>45.83314638697089</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>60.08167498696753</v>
+        <v>58.37596415476312</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>14.59058137081497</v>
+        <v>27.48694943130558</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>53.62484292634834</v>
+        <v>53.79704315881542</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>37.58042580743437</v>
+        <v>57.53700527636102</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>74.39886800760743</v>
+        <v>72.51787758830959</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>21.9665433983607</v>
+        <v>34.52553830105659</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>24.99433140302141</v>
+        <v>42.80451232705418</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>58.41744329806387</v>
+        <v>55.39985184989936</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>10.72621636376817</v>
+        <v>22.82023565441031</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>54.71086910048355</v>
+        <v>54.18504963776156</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>37.43077276105505</v>
+        <v>56.27395557704985</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>76.23340788350893</v>
+        <v>71.86443594534394</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>21.42672815067236</v>
+        <v>31.42739585635032</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>20.58484790032091</v>
+        <v>36.88774586631564</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>48.34859823942817</v>
+        <v>48.46415498547912</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>6.529049115142072</v>
+        <v>18.67792414815817</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>54.99436726701816</v>
+        <v>60.42435445927692</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>32.85982051929435</v>
+        <v>53.75885088272101</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>65.05672118901307</v>
+        <v>68.28402922595508</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>16.41261230844511</v>
+        <v>29.40671195055835</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>16.41506039323525</v>
+        <v>17.50600719878077</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>-5.414725642257501</v>
+        <v>13.16843927457569</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>7.237655148357121</v>
+        <v>16.4000566954797</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>-19.55487559046802</v>
+        <v>7.054981974112865</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>15.4978873472204</v>
+        <v>23.32720044356334</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.62669615826874</v>
+        <v>28.51088900736504</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>9.373414025113043</v>
+        <v>32.64431903092406</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.57395081969037</v>
+        <v>39.43740863367733</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>-4.528051136609236</v>
+        <v>23.49943901027405</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>31.27585290582442</v>
+        <v>42.31205767133337</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.58365175723306</v>
+        <v>28.99693076667361</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6.894346476671124</v>
+        <v>30.27707105576754</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.52684158747932</v>
+        <v>36.83419825321731</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>-7.744708782289791</v>
+        <v>18.37034466370625</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>31.15524287455682</v>
+        <v>42.56881639492613</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>27.16894913774107</v>
+        <v>29.99277019331544</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>3.928970730894655</v>
+        <v>22.85340532788514</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20.45526416959359</v>
+        <v>28.94178413702811</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-10.51625790402997</v>
+        <v>10.64698418470911</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.79909641647535</v>
+        <v>42.24773042099224</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>-3.989918802314641</v>
+        <v>17.31477734720838</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.50495354170054</v>
+        <v>20.11623558657077</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>-14.77628702235609</v>
+        <v>8.514683647697305</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>22.46351042605654</v>
+        <v>28.29526942341738</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.604112757128632</v>
+        <v>23.74921228500337</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>20.79759338357633</v>
+        <v>27.90426678842658</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>-11.15882668512279</v>
+        <v>9.742521826001154</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>16.85377226034679</v>
+        <v>43.00014058826833</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>40.029168405848</v>
+        <v>50.59898741849358</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>6.97656387871551</v>
+        <v>32.09805092552419</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>44.4040611360181</v>
+        <v>52.78471738044106</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>30.12219391325038</v>
+        <v>58.54176701955458</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>58.2409619419367</v>
+        <v>68.51362291693897</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>17.66570896978016</v>
+        <v>42.48199998125281</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>15.41560729262605</v>
+        <v>40.01856264612444</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>40.3747190170367</v>
+        <v>47.62195231768949</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>5.047695812724186</v>
+        <v>27.42131664582428</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>47.31625000125332</v>
+        <v>54.10237916775448</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.95111660707627</v>
+        <v>57.69056192017724</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>62.23634092695707</v>
+        <v>68.19442607057383</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.18142640833014</v>
+        <v>39.61352541346056</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>10.072172199487</v>
+        <v>30.69520730738653</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.15739231689057</v>
+        <v>37.49160455207269</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>-0.6794820400966728</v>
+        <v>18.30994058387185</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>45.50477911878372</v>
+        <v>55.94014749140566</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>24.67577018809493</v>
+        <v>49.43886729857771</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>48.06198556112898</v>
+        <v>59.01060113767242</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>10.97063255881562</v>
+        <v>30.49993598161716</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.41699863363151</v>
+        <v>29.33936607980431</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>1.15287083733017</v>
+        <v>16.05192474275319</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19.36426500220614</v>
+        <v>21.50648553230167</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-15.19538041276874</v>
+        <v>0.5820273166641545</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.349314197729</v>
+        <v>38.46423260706006</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>38.07831568631144</v>
+        <v>40.75600369809705</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.34862842062259</v>
+        <v>35.68532099396768</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>43.23207129522447</v>
+        <v>44.98190085176032</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>1.247889043417345</v>
+        <v>16.66398895534774</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>47.56197368633356</v>
+        <v>57.15336550884515</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>37.33909947389967</v>
+        <v>41.45870362266562</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.21945785637483</v>
+        <v>33.60583713867278</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>42.52115704913734</v>
+        <v>42.72992644305629</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>-1.588651928206382</v>
+        <v>11.77741659275127</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>47.74331797452226</v>
+        <v>57.61355557290414</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>37.99136456958219</v>
+        <v>43.81499267703786</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11.30079198152841</v>
+        <v>27.64971897282381</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>33.44836029223589</v>
+        <v>36.17878482244146</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>-5.370791886496406</v>
+        <v>5.710311322264547</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>46.51633277892792</v>
+        <v>59.3420010410337</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>8.114888188815669</v>
+        <v>30.7254873685586</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.55588698580073</v>
+        <v>36.73371925173658</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>-4.648051187086978</v>
+        <v>15.9667076912395</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>32.42265731178649</v>
+        <v>38.18349956735398</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>10.20410674642986</v>
+        <v>32.12516050828256</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>33.77049482132612</v>
+        <v>38.93020530215576</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-4.993093832553313</v>
+        <v>12.89863118281104</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.35526224856247</v>
+        <v>56.20820331576549</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>59.60476394705442</v>
+        <v>67.34158232831665</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>18.51461321654975</v>
+        <v>39.0527292060449</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>55.17948749844564</v>
+        <v>60.48798851828749</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>38.50238263529474</v>
+        <v>64.82456148675644</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>72.10457053315604</v>
+        <v>77.77650417802668</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.64804162728532</v>
+        <v>43.33698437235941</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.26041279437479</v>
+        <v>53.50411991982295</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>60.2768044073476</v>
+        <v>64.71626088140513</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>16.95638426916125</v>
+        <v>34.61180519773737</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>58.33697172838122</v>
+        <v>61.71005887328024</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>40.61496049944721</v>
+        <v>63.95140446878647</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>76.3642079097763</v>
+        <v>77.50564889996969</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.47319703935614</v>
+        <v>40.43256102834213</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>23.03307788354084</v>
+        <v>46.24806860698166</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>48.12722813092067</v>
+        <v>56.53048931691526</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>10.28826258489141</v>
+        <v>27.65536315358667</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.08493026924874</v>
+        <v>66.48501505841998</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>32.8905148059339</v>
+        <v>58.66093663231702</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>61.69853742859225</v>
+        <v>71.13298986759926</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>17.74474982481217</v>
+        <v>34.32874188664812</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>24.43332818077076</v>
+        <v>30.04110180223469</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-2.855965880756301</v>
+        <v>6.30387479353749</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>18.56227122415689</v>
+        <v>13.58704271836496</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>-22.4810582470156</v>
+        <v>-19.16452457833473</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.19130976103706</v>
+        <v>40.08168845778074</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.79634871326709</v>
+        <v>37.33843515638507</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>9.467572721882135</v>
+        <v>20.30490883967695</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>38.32485803692576</v>
+        <v>31.20338408143804</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>-10.38589327303477</v>
+        <v>-9.769965632781625</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>46.6041895175822</v>
+        <v>56.27072438229626</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>30.42451349230359</v>
+        <v>36.8686199536985</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>5.582923498652534</v>
+        <v>17.36068961583383</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.74568482435905</v>
+        <v>28.08198377154014</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>-15.04472100080741</v>
+        <v>-15.34436954044268</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>45.28029959774503</v>
+        <v>56.95500564449994</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>33.31238921719896</v>
+        <v>40.41119268780693</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>4.426291694922767</v>
+        <v>13.93838589352336</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.70091624857922</v>
+        <v>24.15834154652219</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>-15.6419449606702</v>
+        <v>-17.86502989860593</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>46.65458457527285</v>
+        <v>58.70381033827082</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>10.74467551123364</v>
+        <v>30.35201498098453</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>34.82369586377061</v>
+        <v>40.3707281281897</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>-4.725903770460214</v>
+        <v>10.73116555059256</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>35.04906337857466</v>
+        <v>37.9074960496278</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>13.98192078033057</v>
+        <v>31.9092670042886</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>41.78545376874682</v>
+        <v>42.26052000374814</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-3.197728847341324</v>
+        <v>9.03137323877659</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.59167822614685</v>
+        <v>51.84996524450485</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>61.2113927586998</v>
+        <v>66.81524822339372</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>13.5427806966549</v>
+        <v>28.68290688899669</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>52.88459591663172</v>
+        <v>54.10817224055534</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.90136757872904</v>
+        <v>57.47742744819967</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>74.44607660760973</v>
+        <v>73.75950860646815</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.65442522936897</v>
+        <v>31.60698683587655</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>25.84714678916869</v>
+        <v>49.68884254155186</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>60.11872552419959</v>
+        <v>64.77123089370124</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.25441418082944</v>
+        <v>24.86541806382197</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>54.52346631090053</v>
+        <v>54.85796173555013</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.37070857074309</v>
+        <v>56.59954821553436</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>76.95114708339113</v>
+        <v>73.52912962622011</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>20.77253342012301</v>
+        <v>28.90662512058397</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.79600327701935</v>
+        <v>43.94846987305898</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>51.44788132467366</v>
+        <v>58.21064085698264</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>7.222880695710337</v>
+        <v>20.59769346205417</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>56.10573876603371</v>
+        <v>61.42949375980471</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>33.95140658938169</v>
+        <v>54.36757226957571</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>66.93352866541748</v>
+        <v>70.34926259518092</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>16.73509063743386</v>
+        <v>26.8476345530375</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.3281254820545</v>
+        <v>8.438297907983154</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>-1.602005062912568</v>
+        <v>2.622421953281789</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>14.65181804721928</v>
+        <v>5.312681798956797</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-17.19692778055146</v>
+        <v>-7.44910469035389</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>20.14501766678465</v>
+        <v>24.00916038603061</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.66635185033988</v>
+        <v>14.83845038880305</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>10.98327703917718</v>
+        <v>16.65315676353919</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>34.73632798844464</v>
+        <v>22.745940717724</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>-4.617730751400828</v>
+        <v>3.172418189183057</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>33.95716337779334</v>
+        <v>40.47694869125189</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>25.6747116145182</v>
+        <v>13.91011742552524</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>6.454888590447084</v>
+        <v>13.08353177928601</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>31.52956505326478</v>
+        <v>18.88253206204328</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-9.909437885174235</v>
+        <v>-2.964286052663033</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>32.0743810708627</v>
+        <v>40.96343468774966</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.97996106724358</v>
+        <v>16.57165348953474</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>4.558449675413485</v>
+        <v>8.44169114149449</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>24.61844928246124</v>
+        <v>13.76809535035374</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>-11.36233387264235</v>
+        <v>-7.439741218111541</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.45007828019578</v>
+        <v>41.57957408881837</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>0.8097675375669127</v>
+        <v>17.10517969785371</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>18.98213687274196</v>
+        <v>21.30358040131807</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>-11.75347852976518</v>
+        <v>5.42005500590407</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>27.65779886870791</v>
+        <v>29.28931949716004</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>8.940340043349607</v>
+        <v>25.00386369845832</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.22224921487843</v>
+        <v>31.02190332277509</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>-6.171314184884437</v>
+        <v>9.203462649955847</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>19.31622945022409</v>
+        <v>39.31913882454873</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>46.08593988985645</v>
+        <v>48.16135323156675</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>7.37633244366468</v>
+        <v>24.85293713561817</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.31473749665201</v>
+        <v>50.18790761153876</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>33.86575034939392</v>
+        <v>55.4287947499711</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>65.94335673279558</v>
+        <v>67.07529204532544</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>19.81623157959845</v>
+        <v>37.1411264773727</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>16.00292571435138</v>
+        <v>36.81162053334382</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>44.44190357356598</v>
+        <v>45.61687977936781</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>3.537376482154869</v>
+        <v>20.76956711581672</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>48.59763734476805</v>
+        <v>51.70479173939685</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>33.961244152831</v>
+        <v>55.13098035172539</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>68.09166223614321</v>
+        <v>67.28587399471152</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>19.57005726386774</v>
+        <v>35.00618569410266</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>11.78230190802618</v>
+        <v>29.52022113748252</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>34.46938017950751</v>
+        <v>37.53679071968905</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>-0.7833203523513745</v>
+        <v>14.36673942545108</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>48.02148795221069</v>
+        <v>55.89176316540011</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.26802071141645</v>
+        <v>50.34648940560576</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>55.67747941998969</v>
+        <v>61.68155073283061</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>13.18945448198654</v>
+        <v>29.95565991522097</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>18.3278088013127</v>
+        <v>8.617321160288851</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>-6.868612826042082</v>
+        <v>-3.870422585655893</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>10.67423174187805</v>
+        <v>-1.022540906577779</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>-23.54109637366192</v>
+        <v>-15.38655155278352</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>21.99495976620081</v>
+        <v>9.199924584937436</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.45907418019947</v>
+        <v>17.24202174179756</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>8.768584071449318</v>
+        <v>12.77668331833828</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.03175918186743</v>
+        <v>19.31905397307109</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>-7.74480634727594</v>
+        <v>-2.247473306194747</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>38.68722616041119</v>
+        <v>24.38670618430312</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.42467225220247</v>
+        <v>17.02801068062837</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>6.295703398458329</v>
+        <v>9.726585194924136</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.98300656928177</v>
+        <v>16.0525641831744</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>-10.95128762737277</v>
+        <v>-8.089575640567643</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.6080457286065</v>
+        <v>24.02311736152623</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.42597179111988</v>
+        <v>19.43167498553482</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>2.756779731058948</v>
+        <v>4.030936844981278</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>24.26216364712397</v>
+        <v>9.779499876843866</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>-14.26105546367039</v>
+        <v>-13.76373852641986</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>37.73460624770939</v>
+        <v>26.0423207340033</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>0.1029809123916365</v>
+        <v>0.0666718350245592</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>19.92317801544851</v>
+        <v>2.577690233204793</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>-12.80998686079086</v>
+        <v>-11.97213638745403</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>25.27867044400419</v>
+        <v>14.8462121436643</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>3.516348131664948</v>
+        <v>7.835222519224901</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.73491470957639</v>
+        <v>11.2639755838759</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-11.8508972666668</v>
+        <v>-9.139868216620973</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>21.80111553211081</v>
+        <v>21.67611042385541</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>50.48897222982724</v>
+        <v>29.14093464777758</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>9.727884525876945</v>
+        <v>7.140368975372555</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>47.49062305373099</v>
+        <v>34.17434394162521</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>31.28158919554443</v>
+        <v>37.29205200430339</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>64.61321713834313</v>
+        <v>46.71010209310305</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>17.19431692374472</v>
+        <v>17.96782920945734</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>20.39610745381151</v>
+        <v>18.09592435825963</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>50.86175734589801</v>
+        <v>25.60401240119293</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>7.834820029945682</v>
+        <v>1.841091881742068</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>50.42683727725489</v>
+        <v>34.47325059534514</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>33.13133170329426</v>
+        <v>35.47936419482963</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>68.62746725796576</v>
+        <v>45.47169203901152</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>18.73822521700572</v>
+        <v>14.14632127764486</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>14.55111592249199</v>
+        <v>11.41787452148342</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.06094737164631</v>
+        <v>18.01941325851919</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>1.639869012632865</v>
+        <v>-4.288811766033261</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>48.67285980914743</v>
+        <v>39.30721616856461</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>25.90450548927403</v>
+        <v>30.50350293979047</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>54.41542015522498</v>
+        <v>39.43779514065051</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.57715211379108</v>
+        <v>8.580147642683338</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>42.335345753501</v>
+        <v>51.80782972446857</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>14.65986256351309</v>
+        <v>33.08846488664003</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>39.44304208930465</v>
+        <v>42.44305121533363</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>-4.430848147703557</v>
+        <v>10.4082442678108</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>34.36804776257949</v>
+        <v>34.74434688109763</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>51.5629709070011</v>
+        <v>60.21193283017976</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.91535596919339</v>
+        <v>49.62837324985152</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>60.23302721107756</v>
+        <v>63.00812113998301</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>8.698213729944776</v>
+        <v>23.07466056477721</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.41007048482001</v>
+        <v>50.22334099053764</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>48.62188515820444</v>
+        <v>58.88074797162017</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>23.48549057158179</v>
+        <v>45.94583727857919</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>57.07722660071587</v>
+        <v>59.13300896222609</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>3.522527549362678</v>
+        <v>16.76978039022504</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>46.64629591446976</v>
+        <v>50.76779133025752</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>50.56743421357305</v>
+        <v>59.76573430190792</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>21.3428845517567</v>
+        <v>39.08516498851753</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>49.98806677267677</v>
+        <v>51.48722373638497</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>1.868082601509954</v>
+        <v>10.20233519223328</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>47.04406487209465</v>
+        <v>51.43824359664871</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.79953247930121</v>
+        <v>24.96791149489079</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>37.76198449975567</v>
+        <v>34.68654651612752</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-4.433521068963927</v>
+        <v>6.030977090938778</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>34.59521856076395</v>
+        <v>38.68016767548317</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>12.41326393284277</v>
+        <v>30.8043594934199</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>42.73264417428807</v>
+        <v>41.29142637340602</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>-4.540629212446731</v>
+        <v>8.276037300410232</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.31933892057954</v>
+        <v>46.78100619734259</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>64.8984653210282</v>
+        <v>61.73239267003498</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>14.60080743875389</v>
+        <v>24.83687974323322</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>53.06400156175452</v>
+        <v>54.14258107189591</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>35.96701687137534</v>
+        <v>56.53009989737654</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>76.06508619836566</v>
+        <v>73.22499082526431</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>20.02001459957857</v>
+        <v>31.46526206913789</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.16166404128917</v>
+        <v>44.60610122472543</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>63.35934717060319</v>
+        <v>59.66301590946572</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>10.92687827865623</v>
+        <v>21.05538855326574</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>54.32781976029992</v>
+        <v>54.74013791927903</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.08130116375251</v>
+        <v>55.66678167194188</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>78.17787002767818</v>
+        <v>73.01408725635071</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.80559665386473</v>
+        <v>28.81107420589269</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.09988553026446</v>
+        <v>37.14247217794286</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>53.62794335814952</v>
+        <v>51.16031674965068</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.815401880735017</v>
+        <v>14.60790289530983</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>54.87838678947175</v>
+        <v>60.7561261261667</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>31.63423338567813</v>
+        <v>52.42714503237412</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>67.11340057266136</v>
+        <v>68.66465915653301</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>14.68840461179408</v>
+        <v>25.36488668088897</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>9.809455919636569</v>
+        <v>8.02645354797261</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-8.663162336973599</v>
+        <v>0.9589794246056176</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>4.329748908191362</v>
+        <v>3.9690499572735</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-21.82242502498303</v>
+        <v>-8.538946763244018</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>9.732045715461993</v>
+        <v>15.26263270618443</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.1656495559991</v>
+        <v>18.15702766286832</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>5.520045621624661</v>
+        <v>17.85337276112353</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.78313586447214</v>
+        <v>24.35394689530894</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>-7.860872116983614</v>
+        <v>4.750471685265831</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>25.72723074619222</v>
+        <v>33.98196590455183</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>17.41794188910154</v>
+        <v>17.23898593681752</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1.194804501557556</v>
+        <v>14.38944754237525</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.69297494982985</v>
+        <v>20.52008485620163</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>-12.98644791722681</v>
+        <v>-1.064285505930881</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>23.94143271247916</v>
+        <v>33.30004274955542</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>17.33836426092779</v>
+        <v>17.56910309599619</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>-2.65208993107278</v>
+        <v>8.292410054943639</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>13.93341423901114</v>
+        <v>13.63077440841691</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-16.18186725002978</v>
+        <v>-6.470430568269178</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.50272179418207</v>
+        <v>30.44901259982774</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>-8.069643019657946</v>
+        <v>5.273881380418226</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>6.151881321278154</v>
+        <v>8.321091415342893</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>-19.08966742834544</v>
+        <v>-5.26279609361041</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.7420449770477</v>
+        <v>20.6058525650179</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-1.141974672521343</v>
+        <v>13.40123068068583</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.12172194745112</v>
+        <v>18.11962138281111</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>-15.31418702124627</v>
+        <v>-2.358833155098869</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.17633042158238</v>
+        <v>28.97449876021383</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>34.68778834995932</v>
+        <v>36.70500337156836</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>1.486263162516806</v>
+        <v>15.02580461644463</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>37.94028658615623</v>
+        <v>43.90184997974567</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.92695403973643</v>
+        <v>45.55038542113008</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>52.60797900044543</v>
+        <v>55.90267013828726</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>11.53419208745052</v>
+        <v>26.66402127411155</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>8.927519591300424</v>
+        <v>25.43009940164531</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.99819677675232</v>
+        <v>33.02081837878681</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>-2.330519662776879</v>
+        <v>10.03356708043659</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>38.92924484977814</v>
+        <v>44.13718166631467</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>24.70802514967566</v>
+        <v>44.09462597405772</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>54.31237901842786</v>
+        <v>54.82230069581734</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>10.94559350196577</v>
+        <v>23.48491648711556</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>2.318419092603442</v>
+        <v>15.42061544935478</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>20.78620579056543</v>
+        <v>21.81162547957738</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>-8.769194696093749</v>
+        <v>1.825882941490116</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>35.97355129957695</v>
+        <v>44.62582709194798</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>17.00729303239396</v>
+        <v>36.23929881760453</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>40.09944100215881</v>
+        <v>45.73147922163108</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>2.813885148762054</v>
+        <v>16.2059753927901</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>19.37143904885019</v>
+        <v>13.80939019941871</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-4.011202101626552</v>
+        <v>-0.443198056264789</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>14.12606572963851</v>
+        <v>4.644459773497418</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>-20.80161511625086</v>
+        <v>-17.12812731313444</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>27.49115641538535</v>
+        <v>35.62909399525572</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.13162591734911</v>
+        <v>21.46191341371917</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>8.374600812827524</v>
+        <v>13.60190598821989</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.73038181391902</v>
+        <v>22.19644802143453</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>-8.847750740086411</v>
+        <v>-7.573378941455877</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>41.33032241676395</v>
+        <v>50.59996916380185</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>25.75477108449915</v>
+        <v>21.3157317309202</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>4.41000479181892</v>
+        <v>10.83744580822732</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>31.0065094731813</v>
+        <v>19.19419908382685</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>-13.6494939965887</v>
+        <v>-12.92575549759183</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>39.9012613007837</v>
+        <v>50.55042200191377</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>27.88857377045598</v>
+        <v>25.89323190807216</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2.870060969904166</v>
+        <v>9.010378374342062</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>24.70670680730387</v>
+        <v>16.89532191851486</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-14.40780015864932</v>
+        <v>-13.57837407711889</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>40.28437658627831</v>
+        <v>52.98414482203238</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>7.308190559098577</v>
+        <v>28.00034866132842</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>27.45511543555114</v>
+        <v>35.08770154920384</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>-6.16588670899668</v>
+        <v>13.70428716934362</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.48357747076446</v>
+        <v>35.16734937765984</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>13.02235002834036</v>
+        <v>30.90167556668472</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.18763327908985</v>
+        <v>39.18750410095924</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.935916705826585</v>
+        <v>11.64389854537628</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>25.22362286107716</v>
+        <v>47.54798493455152</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>53.62970537768086</v>
+        <v>59.45599192093763</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>11.90756761940625</v>
+        <v>29.3413505722562</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>50.40297306395952</v>
+        <v>51.99247294063095</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>35.7149050526255</v>
+        <v>56.46371897174969</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>69.29746871838644</v>
+        <v>70.55348080556794</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.43088757876191</v>
+        <v>33.78887575954082</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>22.30604492757921</v>
+        <v>44.49599905195414</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>52.28516432140127</v>
+        <v>56.45589820192213</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>8.381164037567409</v>
+        <v>24.65700085845896</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>51.67154038900256</v>
+        <v>52.44398103903441</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>35.76004005408963</v>
+        <v>55.17171753463493</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>71.28835956077725</v>
+        <v>69.84624848235723</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>20.07434242553725</v>
+        <v>30.6830570162931</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>18.63044610737045</v>
+        <v>40.08144622491135</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>43.15584186774899</v>
+        <v>51.1971061588135</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>4.993890455928536</v>
+        <v>22.37297577521047</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.57147264014699</v>
+        <v>58.91811333699194</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>31.97125865112554</v>
+        <v>53.48669983765574</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>61.10861539684595</v>
+        <v>67.23719584047818</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>15.92212039384904</v>
+        <v>29.82342593855103</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>18.57587375622519</v>
+        <v>15.55693566815589</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>-0.7781888774943297</v>
+        <v>8.31559976225301</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>12.81920325344976</v>
+        <v>11.39281525422775</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-14.51031683227442</v>
+        <v>-0.1562427850229877</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>8.848712075159348</v>
+        <v>9.962521384418226</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>25.79293938088713</v>
+        <v>23.1433529544003</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>10.11272599992235</v>
+        <v>22.96144762857937</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>30.73423093373077</v>
+        <v>29.22472311998212</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-3.986484548663128</v>
+        <v>10.95187865450426</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>20.89315501416328</v>
+        <v>24.25891695984206</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.59553237080108</v>
+        <v>22.58155277848794</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>5.312322555258532</v>
+        <v>19.83107647614755</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.15094536617568</v>
+        <v>25.76883786106275</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-9.626566508358117</v>
+        <v>5.354375181802547</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>18.73663048749766</v>
+        <v>24.29418822812654</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>25.37529477144467</v>
+        <v>24.26155974958289</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>4.461573963464375</v>
+        <v>14.71993626144128</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.63518368894736</v>
+        <v>20.31656638940529</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-9.686710520688962</v>
+        <v>0.8100171177207702</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>19.72646838415297</v>
+        <v>24.43061428770685</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-8.528718232676631</v>
+        <v>0.3830678996261003</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>6.289849597223288</v>
+        <v>3.093267259932292</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-19.40336634394869</v>
+        <v>-8.49884981633299</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>18.5381207148455</v>
+        <v>18.89569006630796</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>1.499973679051145</v>
+        <v>13.35703785800386</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>20.74155714544995</v>
+        <v>18.16036412751023</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-12.41797103438998</v>
+        <v>-0.889405151507729</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.612373481804568</v>
+        <v>19.48652025006237</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>30.46414537446918</v>
+        <v>26.53562604532845</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-3.056442615042641</v>
+        <v>7.417953600383656</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>35.36778864661595</v>
+        <v>36.89814262645904</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>23.08140397962002</v>
+        <v>40.27751260416377</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>51.49355705163691</v>
+        <v>50.3875231162017</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>9.838092763925822</v>
+        <v>23.23398206284497</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>3.956862314245612</v>
+        <v>16.56802474847622</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.35657754813187</v>
+        <v>23.56519185492311</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-7.324193378834025</v>
+        <v>2.982016904102176</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.00656714583505</v>
+        <v>37.6539515340375</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>22.48078518781243</v>
+        <v>39.33864830893328</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>52.80934385717606</v>
+        <v>49.93916180215688</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>8.826956186030543</v>
+        <v>20.55911251402294</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>0.9373279526889107</v>
+        <v>9.561634906839119</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>19.99393986683651</v>
+        <v>15.90240531176277</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>-10.04003469696958</v>
+        <v>-2.412163344083487</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.94620547121535</v>
+        <v>41.13711156051224</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>18.81232604932597</v>
+        <v>34.44788473678285</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>42.88747890577656</v>
+        <v>44.37703362416591</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>4.845560196829439</v>
+        <v>16.06020094675321</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>1.50306464551732</v>
+        <v>-1.47812069242717</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>-15.81119327576266</v>
+        <v>-7.465047122056694</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-6.408848401408335</v>
+        <v>-6.790531925162922</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-28.6949319109159</v>
+        <v>-12.29750328193206</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>2.576003149871752</v>
+        <v>0.97467192975183</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>7.653897525580994</v>
+        <v>3.44371956415665</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-6.192697752160051</v>
+        <v>3.579738957654717</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>9.885051852224393</v>
+        <v>7.020642591860232</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>-19.53272724595871</v>
+        <v>-4.846823221832265</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.56080700454919</v>
+        <v>12.48692103648485</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>4.882812377303587</v>
+        <v>2.872323954776258</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>-10.5500227333447</v>
+        <v>0.4113304350208775</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>6.719818468091297</v>
+        <v>3.511072918607136</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>-24.73601602995582</v>
+        <v>-10.38275775635907</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>11.69602199344982</v>
+        <v>12.05416870976598</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.304843911274574</v>
+        <v>6.663020307162197</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>-10.55389897016074</v>
+        <v>-1.89931482520238</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2.27102152612251</v>
+        <v>1.048845643661616</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>-23.88376599552486</v>
+        <v>-11.83454647887085</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>13.36952684417572</v>
+        <v>13.91598877951304</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-12.6564483846834</v>
+        <v>-7.455023342395085</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-1.898823245663152</v>
+        <v>-6.703469944601791</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>-22.72321077972053</v>
+        <v>-13.16830674121468</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>14.38772987540659</v>
+        <v>10.01373243335792</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-0.6717055543135473</v>
+        <v>6.213050443407562</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.76506028048108</v>
+        <v>8.867044368766964</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>-13.87286949006621</v>
+        <v>-5.025399271879762</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>2.217283387759167</v>
+        <v>7.992526698014112</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>20.6306823135281</v>
+        <v>12.65932345783052</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>-7.754252901819441</v>
+        <v>-1.026420866458443</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.06147385242491</v>
+        <v>25.84173363399678</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>19.56050048331305</v>
+        <v>30.07771726322979</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>43.77701193428376</v>
+        <v>37.58863682155512</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>6.917707125990638</v>
+        <v>15.93354761700098</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-1.133314693389593</v>
+        <v>4.577032591281382</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>18.79218853344952</v>
+        <v>9.163373245049593</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-11.7300976107442</v>
+        <v>-5.91050494681439</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>30.83173032799715</v>
+        <v>26.10519265938978</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>19.10318206516445</v>
+        <v>28.57316888849432</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>45.18992261568421</v>
+        <v>36.52083612554451</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>6.036028929953645</v>
+        <v>12.75638271940098</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-3.260271058715645</v>
+        <v>0.03541526174741172</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>11.56387461538446</v>
+        <v>4.129035967865237</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>-13.46691927473213</v>
+        <v>-8.548186710123934</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>32.46271559129195</v>
+        <v>30.50791921845273</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>16.31993323426671</v>
+        <v>25.24032693004474</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.40826573937952</v>
+        <v>32.65607157604197</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>3.034434472374429</v>
+        <v>10.10725274393092</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>15.95766891812809</v>
+        <v>20.5546170029186</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>-6.144638210314113</v>
+        <v>16.52535949184021</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.416530547505282</v>
+        <v>21.19345538230629</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-20.49030222642166</v>
+        <v>8.412172889510652</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>14.46267951364804</v>
+        <v>13.89476185176599</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>27.07461937963488</v>
+        <v>33.8057654814008</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>9.643676367055441</v>
+        <v>38.69515787469626</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.95992039238622</v>
+        <v>47.22022060123955</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-4.414556162669967</v>
+        <v>27.49784917082256</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>31.38546221416779</v>
+        <v>33.9339191092455</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>25.68237285947845</v>
+        <v>34.7474785839073</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>6.799132678919818</v>
+        <v>36.83416513339223</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>30.54882868449198</v>
+        <v>45.11840012982036</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-7.986430538216773</v>
+        <v>22.8425326755642</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>30.98360511221495</v>
+        <v>35.02195129310393</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.34729296330204</v>
+        <v>33.20943513896732</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>2.833081176672188</v>
+        <v>26.67442704291252</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.32779997608938</v>
+        <v>34.27196066312569</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-11.79022084998068</v>
+        <v>12.35792956539582</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.53363071453947</v>
+        <v>33.51516288735709</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-5.632940880571347</v>
+        <v>7.896065183511732</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.77704966760256</v>
+        <v>11.81558096516942</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>-16.86735903983131</v>
+        <v>-2.035585698872707</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.01132188957932</v>
+        <v>22.03665435989237</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>0.6055901360316724</v>
+        <v>16.97149875778705</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.63624571689006</v>
+        <v>22.46485725264399</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-13.5676975617608</v>
+        <v>1.648083367631054</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.44593268448777</v>
+        <v>35.1580205308613</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>41.75628794438812</v>
+        <v>44.13585450439123</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>6.167683967067759</v>
+        <v>23.07833537018698</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>44.27486379561719</v>
+        <v>48.02640031404718</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.52897477102965</v>
+        <v>53.74681292131537</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>59.70416952977182</v>
+        <v>65.33331912070247</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.71038559441335</v>
+        <v>36.31442623357592</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>14.7125437663035</v>
+        <v>33.06981144425988</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.81073997265912</v>
+        <v>42.05146267422926</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>3.95673650647003</v>
+        <v>19.26840152929639</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>47.005558328483</v>
+        <v>50.19784351975495</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.16287650381143</v>
+        <v>53.84171752009942</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>63.51244129653101</v>
+        <v>65.97548183111591</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>18.04397528449681</v>
+        <v>34.35759830056566</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>8.192352472328544</v>
+        <v>22.19320658770861</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.25840516504439</v>
+        <v>30.18796393586788</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>-2.982513317627983</v>
+        <v>8.582879825820301</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.00541542558868</v>
+        <v>50.78802104934881</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>22.62320112272046</v>
+        <v>44.0740145007862</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>47.91673709337272</v>
+        <v>55.11766904135393</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>8.530078124987291</v>
+        <v>23.70228822244784</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.24795577097964</v>
+        <v>43.34894555271048</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>13.63082671592477</v>
+        <v>31.1725272883883</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>31.52534287809675</v>
+        <v>38.25013191905505</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>-1.343802287138914</v>
+        <v>15.88662439275456</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.49285181881848</v>
+        <v>33.20501332979467</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>45.01280336398405</v>
+        <v>51.6444658128267</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>27.07719692947741</v>
+        <v>46.57762002650632</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>52.25372457041361</v>
+        <v>57.25231481198409</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>11.78462477857764</v>
+        <v>27.67914984209636</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.45727983068663</v>
+        <v>48.37122513927244</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>42.24396876005608</v>
+        <v>50.19713275488808</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.72514733086079</v>
+        <v>42.69073789198485</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>49.11692646859254</v>
+        <v>53.02821449596885</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>6.613917392690269</v>
+        <v>21.42236398556492</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>41.70408716090785</v>
+        <v>47.2408315428617</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>43.33855642090795</v>
+        <v>53.23138880199456</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>20.13631754518319</v>
+        <v>39.00440392277195</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>41.6857685712568</v>
+        <v>48.65572254257845</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>4.734912033034739</v>
+        <v>18.28978333928907</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>40.6908725436012</v>
+        <v>47.75263599379224</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>8.417342823203704</v>
+        <v>22.16001081499164</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>27.6566498429551</v>
+        <v>28.50549660916204</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-3.880129684710937</v>
+        <v>7.944901642187043</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>30.62420867341059</v>
+        <v>33.20521066551914</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>10.93857327275572</v>
+        <v>25.69831822610151</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.91047422223252</v>
+        <v>33.65511894869856</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-4.158586983356983</v>
+        <v>6.180862677264722</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.49261135374647</v>
+        <v>42.46981691553277</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>55.02995358166794</v>
+        <v>53.61033937239056</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>15.43961207814829</v>
+        <v>24.8762538839771</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>49.89448547763224</v>
+        <v>50.84783101172583</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.9901721682555</v>
+        <v>52.50154820654618</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>67.38483846246672</v>
+        <v>66.2124574062227</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>20.62783518409256</v>
+        <v>29.98745116084934</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>24.26535727790278</v>
+        <v>38.54605300492153</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>53.3444547267199</v>
+        <v>49.62021385079219</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>11.6236943060333</v>
+        <v>19.50519173287143</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>50.82749893912617</v>
+        <v>50.32639436887442</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>34.71182573649295</v>
+        <v>50.40519064001917</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>69.01554412577015</v>
+        <v>64.574743146971</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>19.96680691283694</v>
+        <v>26.21452031196402</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>19.17564729826391</v>
+        <v>31.85739252889237</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>42.72726163258156</v>
+        <v>41.85927233313036</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>6.764142488095672</v>
+        <v>14.56217810365887</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>50.05133268532461</v>
+        <v>54.96597099325032</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.24610796077968</v>
+        <v>46.62274081115208</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>57.11089036219377</v>
+        <v>59.67573455962656</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.09832420448959</v>
+        <v>22.91962527874538</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.7166515218118</v>
+        <v>35.87186113574226</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>10.57559917503512</v>
+        <v>22.84416964862357</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.12268882654413</v>
+        <v>30.39707250745761</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-6.128380889338388</v>
+        <v>6.772893286850485</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>32.80660592849918</v>
+        <v>30.56637548875816</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>48.73751951465505</v>
+        <v>47.40117488069825</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.20130929443573</v>
+        <v>43.43961437894876</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>55.59802598884067</v>
+        <v>55.12508730422748</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>10.75702790708045</v>
+        <v>24.05887149984469</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>50.32450407382076</v>
+        <v>49.21093626417223</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>47.54931070050097</v>
+        <v>47.51387101661739</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>24.59649133505278</v>
+        <v>40.87876377127376</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>54.41336823775009</v>
+        <v>52.37622732946107</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>7.438944649615408</v>
+        <v>18.67840579416826</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>50.15137296271956</v>
+        <v>49.65659347772271</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>47.94839129289316</v>
+        <v>48.52099985231869</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>20.36101324707914</v>
+        <v>33.08511909308591</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>44.91735568533792</v>
+        <v>43.80887943848663</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>3.345860490494516</v>
+        <v>10.53748438233646</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>48.65061387454293</v>
+        <v>50.45073490284074</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>9.553474219264515</v>
+        <v>22.14536314060712</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>32.17292544160975</v>
+        <v>29.30347279668149</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-3.590721514303041</v>
+        <v>6.641327306773976</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>34.08574757285341</v>
+        <v>34.12011643079219</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>10.97745287098503</v>
+        <v>26.31625785800998</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.65508079432735</v>
+        <v>34.53038184440633</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>-4.588336410121848</v>
+        <v>6.034378410853302</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.1655627759323</v>
+        <v>48.22993681841616</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>63.78057214741435</v>
+        <v>60.77923274264429</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.9623264392955</v>
+        <v>30.49964343535527</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>57.15625809254986</v>
+        <v>56.41620513469218</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.6571930370134</v>
+        <v>59.66925555318989</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>75.5601751386495</v>
+        <v>74.31986040645761</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>25.46019398471572</v>
+        <v>37.27955712277322</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>30.69119830798016</v>
+        <v>45.61384024675755</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>64.08071975693774</v>
+        <v>58.23641582661526</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>18.02185660067993</v>
+        <v>26.1633998569415</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>60.04912251700986</v>
+        <v>57.59078763629777</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>41.48311681653121</v>
+        <v>58.90179576868292</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>79.54665251144237</v>
+        <v>74.17086532784353</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.99844008821752</v>
+        <v>34.48944499847338</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>24.12721094326362</v>
+        <v>36.98784337871299</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>51.48054553613066</v>
+        <v>48.5206397588405</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>11.01598171773162</v>
+        <v>17.6936471323197</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>57.58863997676264</v>
+        <v>61.56601324351129</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.4875248734612</v>
+        <v>52.44047218913706</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>64.49492713388911</v>
+        <v>66.48432035223483</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>17.98846695706276</v>
+        <v>27.07260761133171</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>34.04419461184229</v>
+        <v>37.36959479933698</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>10.60410210255638</v>
+        <v>24.51654235975239</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.35092201549142</v>
+        <v>29.4835638203406</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>-4.209013208011584</v>
+        <v>12.57820124869964</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.64592986280171</v>
+        <v>39.59834629878261</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>44.92295267442631</v>
+        <v>49.05527566582004</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.06915082699372</v>
+        <v>44.8137459522484</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>49.35343534216256</v>
+        <v>53.49349200697812</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>11.58257733019795</v>
+        <v>29.94427482115201</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>48.97852945243558</v>
+        <v>57.51362078391453</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>44.24384835205481</v>
+        <v>50.53456961805679</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>24.01084067855476</v>
+        <v>43.57957657865776</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>48.71211109093541</v>
+        <v>52.08865293585273</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>8.815339902378675</v>
+        <v>25.94705498758784</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>49.19723312621635</v>
+        <v>58.55315311236446</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>45.52615042541061</v>
+        <v>52.52948463876496</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>20.70729442347429</v>
+        <v>37.00454757114878</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>40.32702229067144</v>
+        <v>44.98264124200141</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>5.596074448903352</v>
+        <v>18.80388544158836</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>48.60988883273589</v>
+        <v>60.50034612969515</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>11.51706186908493</v>
+        <v>27.41637110756449</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.11002992059696</v>
+        <v>31.94241191543057</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-0.0204532927297123</v>
+        <v>14.94195261766094</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>34.64382794512542</v>
+        <v>41.67565809378055</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>13.30659653699713</v>
+        <v>30.74707125071443</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>34.05846271874405</v>
+        <v>36.38084980189998</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>-0.9289538408816327</v>
+        <v>13.33903007526409</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.91441203990205</v>
+        <v>52.38056275029019</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>59.16298532711431</v>
+        <v>61.8019111685262</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>22.3685986159538</v>
+        <v>38.09695006425189</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>57.00597415201523</v>
+        <v>64.58106650014027</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>41.20858084059979</v>
+        <v>64.09501537899754</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>71.83492034263821</v>
+        <v>75.63000136516062</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.347984303418</v>
+        <v>44.8888662228855</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>31.87112650500606</v>
+        <v>50.34998519939765</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>59.88278760252092</v>
+        <v>59.83745855308057</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>20.85991886332597</v>
+        <v>34.37218807358991</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>60.21503043719953</v>
+        <v>66.59620145715544</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>43.37984360885925</v>
+        <v>64.05402339624665</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>76.1452115172586</v>
+        <v>76.16949128895175</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.22409320541948</v>
+        <v>42.83648695680589</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.27095111590184</v>
+        <v>43.09307470202803</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>48.44244025539636</v>
+        <v>51.7571793786177</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>14.76920713628573</v>
+        <v>26.92295881995535</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>58.08788049256451</v>
+        <v>70.57119835778235</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.7996673937252</v>
+        <v>57.85409664299571</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>61.71305164076338</v>
+        <v>69.00384589075232</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>21.62223881683211</v>
+        <v>35.43681814845213</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.03435234353756</v>
+        <v>30.14155916484874</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>4.222538854063302</v>
+        <v>19.92940042461663</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>23.96584459928677</v>
+        <v>27.17416730469208</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>-11.84067247533487</v>
+        <v>4.239611711249895</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>24.18555525531002</v>
+        <v>24.37896401587049</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>40.28743281408536</v>
+        <v>44.79943798170741</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>20.60897456409694</v>
+        <v>42.40363007441686</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>48.17196519764035</v>
+        <v>53.97064225930185</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>4.414593739990153</v>
+        <v>22.64192922143121</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>42.06726531081327</v>
+        <v>43.94269300403727</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>38.10048778168397</v>
+        <v>44.44002246463641</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>16.84566490085747</v>
+        <v>39.38598090840243</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>45.734400753324</v>
+        <v>50.68989998608971</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-0.1503633692071134</v>
+        <v>16.9379108225619</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>40.91733054224829</v>
+        <v>43.71343708596707</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>37.5959572432045</v>
+        <v>41.9732815196714</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>12.19460583666186</v>
+        <v>29.49091911336559</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>35.84438043619382</v>
+        <v>39.61966064654151</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>-4.265068392932903</v>
+        <v>7.679233191062915</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>38.19086368055436</v>
+        <v>41.03487802558845</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>2.149786515632215</v>
+        <v>14.70452711978102</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>23.56477083760824</v>
+        <v>21.33284020079081</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>-10.97650684470524</v>
+        <v>-0.1513915745213108</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.27562577011915</v>
+        <v>28.73009044953587</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>4.366025018455431</v>
+        <v>20.88004787892377</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.33618873031075</v>
+        <v>28.56411531666637</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-11.57507844018301</v>
+        <v>0.901901769633648</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>24.63343008466283</v>
+        <v>40.36263475781909</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>54.96385717695611</v>
+        <v>52.53363139796948</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>11.99340527124777</v>
+        <v>21.99106725932724</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>48.99190140875072</v>
+        <v>50.82867611164705</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>32.32204476134763</v>
+        <v>53.06375992571063</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>67.40089494639821</v>
+        <v>67.29057240296009</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>17.35571186805893</v>
+        <v>29.87203705892544</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>22.02463675540483</v>
+        <v>37.15607071728711</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>54.02535920638468</v>
+        <v>49.33070480652071</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>8.827411098633888</v>
+        <v>17.11738770245408</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>50.72226543073596</v>
+        <v>51.09071333101949</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>32.85673852999849</v>
+        <v>51.59042438087007</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>69.99074442321249</v>
+        <v>66.36429645130285</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>17.53789752792611</v>
+        <v>26.47751529646097</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>14.72407084136645</v>
+        <v>26.32240758591023</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>40.74513158259106</v>
+        <v>36.97180438356805</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1.53361049878184</v>
+        <v>7.892368814104737</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>47.85931317720346</v>
+        <v>52.45739056007607</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>24.83323723355331</v>
+        <v>43.65189404524396</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>55.01156653527059</v>
+        <v>56.82537028191178</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>8.88416708616154</v>
+        <v>18.91980363229379</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>16.81482338666265</v>
+        <v>9.815583997094654</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>-5.116210189121745</v>
+        <v>4.38180656316638</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.581851970556883</v>
+        <v>7.648517022006283</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>-20.07641398065256</v>
+        <v>-5.273686731217763</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>17.49907690780857</v>
+        <v>18.05467753155844</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.70291755353662</v>
+        <v>20.62641256112095</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>9.163009341220544</v>
+        <v>23.05092299946376</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.3564936502142</v>
+        <v>29.96279392502715</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-5.611338081292473</v>
+        <v>10.09759074061827</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>33.31323801787775</v>
+        <v>37.62781326821042</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.15271443784741</v>
+        <v>20.64695618092362</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>6.205819076987673</v>
+        <v>20.43853310410032</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.75643892276467</v>
+        <v>27.08321396748761</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>-9.270555751364469</v>
+        <v>4.869644711105709</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>32.75219555732134</v>
+        <v>38.08353558610108</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.76391612123341</v>
+        <v>21.71749786444514</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>3.446394110125937</v>
+        <v>13.79868509168859</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>20.89714170787461</v>
+        <v>19.68641945733754</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-11.81152756036104</v>
+        <v>-1.839459131521151</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>32.03017785178623</v>
+        <v>37.93221866678741</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>-2.825868248318223</v>
+        <v>8.983314360661661</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.83216259744336</v>
+        <v>13.03414746762313</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>-14.79820401294818</v>
+        <v>-3.401609686015105</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>23.17573950862453</v>
+        <v>23.77530172626388</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>2.247248896174838</v>
+        <v>14.96518472200756</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>21.48013831694252</v>
+        <v>20.74459711977861</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>-12.44792010155072</v>
+        <v>-2.401494841866592</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>17.84147134151962</v>
+        <v>34.66768453877064</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>42.1023968110126</v>
+        <v>43.55709684016958</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>6.687085552044508</v>
+        <v>19.68423307866531</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.47577420527668</v>
+        <v>49.51739894282116</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.88144378885823</v>
+        <v>50.29065577835316</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>58.92595055877005</v>
+        <v>61.93904433265111</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.37616093684409</v>
+        <v>30.38014644162406</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>15.99029156005055</v>
+        <v>32.13823463033555</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>41.94559740297933</v>
+        <v>40.97686981964601</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>4.37222628776405</v>
+        <v>15.52195269924707</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>47.98073072294957</v>
+        <v>51.0462779629469</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>31.32176324115129</v>
+        <v>49.86408116524667</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>62.43566117649867</v>
+        <v>61.9810516236713</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>17.52045753018596</v>
+        <v>27.98846507102866</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>10.47292466604713</v>
+        <v>23.57062830180983</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>30.57606216018129</v>
+        <v>31.32866070632658</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-1.475931617544333</v>
+        <v>7.429824339190604</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>45.36152601284087</v>
+        <v>51.95439677334394</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>23.45366921891915</v>
+        <v>41.32683797324291</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>47.720187540338</v>
+        <v>52.21238978763589</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>8.800146469191908</v>
+        <v>18.883501159802</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>24.35976244505233</v>
+        <v>19.9128537631785</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>1.85246422787732</v>
+        <v>11.51691812473071</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>16.57341698054083</v>
+        <v>15.53621905185303</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-12.07567971986183</v>
+        <v>1.779742339195858</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.87730496979421</v>
+        <v>22.44715325482653</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>35.35809477254078</v>
+        <v>32.08583117285271</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>17.4438611056852</v>
+        <v>32.25709924405155</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.67127575724284</v>
+        <v>39.92660180568013</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>3.867601199150997</v>
+        <v>19.71621809950859</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>38.38900002677084</v>
+        <v>41.19390493269346</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>34.82691960075795</v>
+        <v>34.31048776209361</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>15.5356350877141</v>
+        <v>31.71068866352672</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.1801403232211</v>
+        <v>39.20385975889669</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>1.250206291179254</v>
+        <v>16.43028566698941</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>38.75579211331598</v>
+        <v>42.91376275707101</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>35.75960513268282</v>
+        <v>36.01806818184256</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>11.89305740012999</v>
+        <v>24.95159442164187</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.46124405263569</v>
+        <v>31.92032069446219</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>-2.319029042305644</v>
+        <v>9.071796305271066</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>37.74520216900871</v>
+        <v>44.18411736865642</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>1.362877998487207</v>
+        <v>12.72232012603934</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>17.81908986055564</v>
+        <v>16.19124649300976</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>-9.450359664253646</v>
+        <v>1.252109298532035</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.56929122299186</v>
+        <v>23.8529772322894</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>3.733810461184063</v>
+        <v>14.80005553944634</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>23.35916248043348</v>
+        <v>19.49401449992376</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-9.86633735735326</v>
+        <v>-1.750203197502733</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>22.94042594984263</v>
+        <v>38.43464581044783</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>48.01671580778626</v>
+        <v>46.73087509509754</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>13.13792558444388</v>
+        <v>25.21167601622743</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>47.26441560164099</v>
+        <v>48.24971992313116</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>31.95692358055231</v>
+        <v>49.5141638521625</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>61.41553207573408</v>
+        <v>60.03944529967637</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>19.73891556003029</v>
+        <v>31.1867376617182</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>22.0486688564214</v>
+        <v>37.03575096307795</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>48.88664688684699</v>
+        <v>45.38254493512839</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>11.78019847548049</v>
+        <v>22.13630166161365</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>50.61945129764396</v>
+        <v>51.03944060954451</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>34.27517925215534</v>
+        <v>50.19322136430254</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>65.86913200398607</v>
+        <v>61.28033871509</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>21.75938155905165</v>
+        <v>29.86084523092955</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>16.03586376491222</v>
+        <v>29.20071638151948</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.04028874364131</v>
+        <v>36.71543796092266</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>5.268588176666775</v>
+        <v>14.0996872191048</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>47.92264545064776</v>
+        <v>53.94780312631762</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.14575214321636</v>
+        <v>43.03611258635304</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>50.89944985540752</v>
+        <v>53.15359779626804</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>12.60984512311724</v>
+        <v>21.51231963207977</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>38.02894215586554</v>
+        <v>42.02355171347622</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>14.34316490143843</v>
+        <v>29.81020405032654</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>31.53295414483487</v>
+        <v>35.86829820579781</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>-1.583976342461362</v>
+        <v>15.00130252038459</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>33.20106291456798</v>
+        <v>33.41897996174927</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.10293405262072</v>
+        <v>50.42160997966472</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>27.88148496735899</v>
+        <v>46.78914116061115</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>52.69665705511063</v>
+        <v>56.63323216540626</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>12.09746258065645</v>
+        <v>28.71262005825465</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>47.65138131731538</v>
+        <v>48.27275066998999</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>45.12414063125573</v>
+        <v>50.02320278350467</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>24.40481495741705</v>
+        <v>43.80985241811631</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>50.60035210616778</v>
+        <v>53.43080473442863</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>7.85779796329669</v>
+        <v>23.00169067219779</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>46.71515398504229</v>
+        <v>48.96282088687098</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>47.59872395706699</v>
+        <v>51.48725949531335</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>22.4346771535822</v>
+        <v>37.02752368873544</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>43.52925556937737</v>
+        <v>45.99139322292664</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>6.173058391937985</v>
+        <v>15.92024016821674</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>47.3578233146887</v>
+        <v>50.83249210168901</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>12.06377467171151</v>
+        <v>23.61222382874768</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>31.03809529027697</v>
+        <v>29.55430242805822</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>-0.617455863974044</v>
+        <v>9.927985249999603</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.55132870386545</v>
+        <v>35.27228538790364</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>13.90065359137705</v>
+        <v>28.16436858882378</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>36.469072653422</v>
+        <v>35.39610264149022</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>-1.304898372947534</v>
+        <v>10.06050158578958</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>31.43882504476539</v>
+        <v>45.28794300491129</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>59.1553502185732</v>
+        <v>56.14100937233871</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>19.55589607292799</v>
+        <v>29.27519715990575</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>55.09900794518998</v>
+        <v>53.86119092281221</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>39.90370526041194</v>
+        <v>57.15886700898567</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>72.43834780817748</v>
+        <v>70.31434813619478</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>25.91261515531168</v>
+        <v>36.91421446128528</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>29.11640001465398</v>
+        <v>43.05595578761629</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>58.56637392279941</v>
+        <v>53.95570712336347</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>16.71316359075006</v>
+        <v>25.35204184157775</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>57.31819647958903</v>
+        <v>55.32993894163784</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>40.97301171323647</v>
+        <v>56.81528979042631</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>75.62808721764952</v>
+        <v>70.5603296889666</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>26.64126217800143</v>
+        <v>34.61626811314822</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>24.90707342786713</v>
+        <v>36.10355146157971</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>48.50296935761185</v>
+        <v>46.13825528152814</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>12.22371938020505</v>
+        <v>18.64581737512081</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>56.57947030678037</v>
+        <v>59.98652369299723</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>34.90054952460389</v>
+        <v>51.70401300463343</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>62.69792854381586</v>
+        <v>64.48096756447335</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>19.72414752837399</v>
+        <v>28.70487245026145</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>30.5564803920748</v>
+        <v>29.15964865666417</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>5.061522235730187</v>
+        <v>17.83859011840062</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>25.9016703322975</v>
+        <v>25.21862333073511</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>-11.68000467998343</v>
+        <v>1.362001371486587</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>25.32345750947108</v>
+        <v>24.88525770444658</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>43.53036813407543</v>
+        <v>45.29967557966983</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>22.22811998698</v>
+        <v>41.81545883583543</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>50.98097846958674</v>
+        <v>53.62547179641671</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>5.398407296180693</v>
+        <v>21.29170043912271</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>43.6782769895628</v>
+        <v>45.60992460417346</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>41.78211714529286</v>
+        <v>45.74530993012813</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>18.92742616570681</v>
+        <v>39.56897035632971</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>49.03171014800066</v>
+        <v>51.14594570117727</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>1.301999412745687</v>
+        <v>16.32953797493865</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>42.92560221973957</v>
+        <v>46.09320756925315</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>40.75817334759077</v>
+        <v>42.41128724024728</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>13.6767103333502</v>
+        <v>28.73421210976859</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>38.47142541250032</v>
+        <v>39.05726656237886</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>-3.46304536796309</v>
+        <v>6.074732434596031</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>39.91493988286186</v>
+        <v>42.83604448826906</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>1.759258261734303</v>
+        <v>14.95505382268689</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>24.24294285816302</v>
+        <v>21.74688385036582</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>-11.91593743506601</v>
+        <v>-0.3606250986799733</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>24.67427773356489</v>
+        <v>26.78021692797014</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>1.298722253181438</v>
+        <v>17.49313938762202</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>26.96074532109378</v>
+        <v>24.79188512392347</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>-15.01211134302201</v>
+        <v>-2.799447412491793</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>24.77704100113216</v>
+        <v>41.82617234964923</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>56.2808039398852</v>
+        <v>54.24322815235009</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>11.64651359267557</v>
+        <v>23.0818965720203</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>48.0079574136192</v>
+        <v>50.06565283032374</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>29.90338581129706</v>
+        <v>50.85267979159521</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>65.78521987513703</v>
+        <v>64.78005546348831</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>14.61613362690191</v>
+        <v>27.3979762415295</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>22.59007286675541</v>
+        <v>39.31072156978187</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>55.7931970002611</v>
+        <v>51.7560363594641</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>8.909717500842888</v>
+        <v>18.87396857031208</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>50.14565306489085</v>
+        <v>50.86682589488282</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>30.86484758322314</v>
+        <v>49.88398846991094</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>68.83206985393481</v>
+        <v>64.37618174836589</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>15.22944709604934</v>
+        <v>24.48259968379946</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>14.92693067917162</v>
+        <v>27.87567089919798</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>42.06995420583843</v>
+        <v>38.73845825466469</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>1.190159218415673</v>
+        <v>8.940982352710394</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>46.76338005700219</v>
+        <v>51.11515883508218</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>22.2723336353661</v>
+        <v>40.78542928044227</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>53.19058847581744</v>
+        <v>53.57543351850493</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>5.956200172647748</v>
+        <v>15.69570162440452</v>
       </c>
     </row>
   </sheetData>
